--- a/medicine/Handicap/Victoria_Kayser/Victoria_Kayser.xlsx
+++ b/medicine/Handicap/Victoria_Kayser/Victoria_Kayser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victoria Kayser-Cuny (1977 -)[1] est une pédagogue et ethnomathématicienne franco-canadienne, ancienne résidente des États-Unis [2], spécialiste du handicap sensoriel dans les domaines des troubles envahissants du développement, de l'adaptation scolaire et sociale en mathématiques et sciences, de l’Alzheimer et des déficiences auditives et visuelles. Exemples: visualiser et manipuler l'algèbre pour les élèves présentant une dyscalculie ; initiation à l'astronomie et à la physique des particules pour les personnes malvoyantes [3]; projet sur la mémoire sensorielle, l'Alzheimer et les démences préfrontales (activités sensorielles de logique) [4] ; Nemeth Code (Braille pour mathématiques et sciences) ; etc.
-Elle est l’auteure d’une pédagogie préscolaire pour développer les intelligences multiples des enfants de trois à cinq ans à travers des activités d'initiation aux sciences, et a été co-responsable canadienne, bénévole, du projet international de la NASA, "MX-Train like an astronaut" de 2017 à 2022 [5],[6],[7] (maintenant géré par l' Agence spatiale européenne [8]).
-Spécialisée dans l’enseignement des STEM, en 2019, après un stage professionnel en éducation au CERN en Suisse [9], la gestion d’un projet éducatif de la NASA au niveau national pour le Canada, plusieurs projets en astronomie/physique [10],[11],[12],[13],[14],[15] et plusieurs séminaires en enseignement des mathématiques à l'Institut Fields [16](MathEd Forum), elle est élue membre représentative au district de Mountain View [17],[18], dans la Silicon Valley, pour les questions liées à l’enseignement des mathématiques et des sciences pour les élèves immigrants avec l’anglais comme seconde langue (comité DELAC - District English Learner Advisory Committee).
-En 2021, elle reçoit une lettre de remerciement de la NASA pour son engagement dans l’enseignement des STEM. Par la même occasion elle est sélectionnée, toujours par la NASA, pour envoyer une vidéo sur la Lune dans le cadre du projet ‘Manifest of the Artemis I mission: Pledge of the Artemis Generation' qui a décollée en 2022. À la manière des capsules temporelles, cette vidéo sera vue par les futures générations qui iront sur la Lune[19].
-En 2023 elle est élue Fellow de la Linnean Society of London (Société linnéenne de Londres)[20] et Fellow du Royal Anthropological Institute of Great Britain and Ireland (Institut royal d'anthropologie de Grande-Bretagne et d'Irlande)[21].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victoria Kayser-Cuny (1977 -) est une pédagogue et ethnomathématicienne franco-canadienne, ancienne résidente des États-Unis , spécialiste du handicap sensoriel dans les domaines des troubles envahissants du développement, de l'adaptation scolaire et sociale en mathématiques et sciences, de l’Alzheimer et des déficiences auditives et visuelles. Exemples: visualiser et manipuler l'algèbre pour les élèves présentant une dyscalculie ; initiation à l'astronomie et à la physique des particules pour les personnes malvoyantes ; projet sur la mémoire sensorielle, l'Alzheimer et les démences préfrontales (activités sensorielles de logique)  ; Nemeth Code (Braille pour mathématiques et sciences) ; etc.
+Elle est l’auteure d’une pédagogie préscolaire pour développer les intelligences multiples des enfants de trois à cinq ans à travers des activités d'initiation aux sciences, et a été co-responsable canadienne, bénévole, du projet international de la NASA, "MX-Train like an astronaut" de 2017 à 2022  (maintenant géré par l' Agence spatiale européenne ).
+Spécialisée dans l’enseignement des STEM, en 2019, après un stage professionnel en éducation au CERN en Suisse , la gestion d’un projet éducatif de la NASA au niveau national pour le Canada, plusieurs projets en astronomie/physique  et plusieurs séminaires en enseignement des mathématiques à l'Institut Fields (MathEd Forum), elle est élue membre représentative au district de Mountain View  dans la Silicon Valley, pour les questions liées à l’enseignement des mathématiques et des sciences pour les élèves immigrants avec l’anglais comme seconde langue (comité DELAC - District English Learner Advisory Committee).
+En 2021, elle reçoit une lettre de remerciement de la NASA pour son engagement dans l’enseignement des STEM. Par la même occasion elle est sélectionnée, toujours par la NASA, pour envoyer une vidéo sur la Lune dans le cadre du projet ‘Manifest of the Artemis I mission: Pledge of the Artemis Generation' qui a décollée en 2022. À la manière des capsules temporelles, cette vidéo sera vue par les futures générations qui iront sur la Lune.
+En 2023 elle est élue Fellow de la Linnean Society of London (Société linnéenne de Londres) et Fellow du Royal Anthropological Institute of Great Britain and Ireland (Institut royal d'anthropologie de Grande-Bretagne et d'Irlande).
 Elle est l'épouse, depuis une vingtaine d'années, de l'homme d'affaires Julien Cuny.
 </t>
         </is>
@@ -516,12 +528,14 @@
           <t>Enfance et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle entre à l'école primaire (CP/1re année) à l'âge de cinq ans. Jusqu'à l'âge de treize ans, elle vit près de la Cité des sciences et de l’industrie (La Villette) qui est son terrain de jeux. Présentant à l'adolescence ce qui semble être un trouble du déficit de l’attention (en réalité une douance non diagnostiquée à l'époque), à la sortie du collège on l’oriente dans une voie technique (BEP/Brevet enseignement technique comptabilité à Bondy). Cumulant les petits métiers en usine, elle décroche son premier CDD en tant qu'aide-laborantine dans un laboratoire de recherche pharmaceutique à La Courneuve (France). Elle reprend ses études tardivement.
 Elle a étudié, au Canada et aux États-Unis, dans plusieurs domaines du certificat aux études doctorales : Droit (droit humanitaire international et assistance humanitaire ; droit et accès à la justice pour les handicapés) ; éducation (adaptation scolaire et sociale) ; sciences de la Terre, de l’environnement et de l’espace ; astronomie/optique/physique ; enseignement des mathématiques et ses méthodes alternatives ; ingénierie génétique (équivalent niveau européen bac +4, master pro) ; etc.
 Ayant grandi dans l'atelier de peinture de son grand-père Paul Derenne, ancien professeur de mathématiques et pédagogue militaire, elle a étudié diverses disciplines auprès de plusieurs artistes : peinture, dessin, reliure, photographie, arts médiévaux comme la peinture japonaise du XIIe siècle ou l’enluminure européenne du VIIIe siècle. Cette connaissance des arts lui permettra d’élaborer une théorie de la peinture pour personnes atteintes du syndrome d'Asperger (voir théorie et pédagogie).
-Passionnée d’optique et par le monde subatomique, elle a réalisé quatre cents expériences et photographies dans ce domaine : chambres à (astro) particules, lasers, camera obscura/photons, tubes à neutrons, insertion de gènes fluorescents de méduse dans des bactéries E.coli inactives, etc. [22] Après plusieurs tests sur des semences ionisées de radis (rayonnements ionisants de 50 Gy, 150 Gy et 500 Gy), en 2019, grâce à une technique de stratification opérationnelle, elle réussit à réveiller des semences de tomates qui sont restées en orbite dans le LDEF/Long Duration Exposure Facility de la NASA  entre 1984 et 1990 (elles ont reçu durant des années des bombardements de rayonnement cosmique). L'idée principale de base étant de faire des expériences de chromatographie et ultraviolet dessus. Elle a créé la première chimère végétale issue de ces semences et d’une plante hôte (semence provenant de la station spatiale internationale et transportée par SpaceX CRS-10 Dragon en mars 2017)[23],[24]. Depuis elle se spécialise en ingénierie génétique (embryologie, CRISPR, clonage) [25], et bioéthique. Elle notamment été mentor pour le projet américain "Genes in Space" pour aider des jeunes souhaitant poursuivre des carrières en génétique et en sciences spatiales.
+Passionnée d’optique et par le monde subatomique, elle a réalisé quatre cents expériences et photographies dans ce domaine : chambres à (astro) particules, lasers, camera obscura/photons, tubes à neutrons, insertion de gènes fluorescents de méduse dans des bactéries E.coli inactives, etc.  Après plusieurs tests sur des semences ionisées de radis (rayonnements ionisants de 50 Gy, 150 Gy et 500 Gy), en 2019, grâce à une technique de stratification opérationnelle, elle réussit à réveiller des semences de tomates qui sont restées en orbite dans le LDEF/Long Duration Exposure Facility de la NASA  entre 1984 et 1990 (elles ont reçu durant des années des bombardements de rayonnement cosmique). L'idée principale de base étant de faire des expériences de chromatographie et ultraviolet dessus. Elle a créé la première chimère végétale issue de ces semences et d’une plante hôte (semence provenant de la station spatiale internationale et transportée par SpaceX CRS-10 Dragon en mars 2017),. Depuis elle se spécialise en ingénierie génétique (embryologie, CRISPR, clonage) , et bioéthique. Elle notamment été mentor pour le projet américain "Genes in Space" pour aider des jeunes souhaitant poursuivre des carrières en génétique et en sciences spatiales.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Autisme et éducation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est consultante de recherche et experte reconnue dans l’éducation des enfants diagnostiqués avec un trouble envahissant du développement (autisme)[26],[27],[28] et les enfants victimes des conflits armés qui présentent les mêmes symptômes que les enfants TED[29],[30],[31]. Elle est également l'auteure d'une théorie[32], d'une pédagogie[33],[34], et de plusieurs livres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est consultante de recherche et experte reconnue dans l’éducation des enfants diagnostiqués avec un trouble envahissant du développement (autisme) et les enfants victimes des conflits armés qui présentent les mêmes symptômes que les enfants TED. Elle est également l'auteure d'une théorie, d'une pédagogie et de plusieurs livres.
 Parallèlement à des études doctorales en éducation, elle travaille en 2009 en tant qu’assistante de recherche du directeur du département sur l’adaptation scolaire et sociale à la faculté d’éducation de l'Université de Sherbrooke, puis comme assistante de recherche du titulaire de la chaire en identités et innovations professionnelles en déficience intellectuelle et troubles envahissants du développement de l'Université de Sherbrooke.
 Puis bénévolement, entre 2009 et 2010, intègre, en tant que membre puis présidente, le comité consultatif de la garderie d’entreprise Ubisoft Montréal /YMCA, équivalent d'une école maternelle française [Quoi ?].
 En janvier 2011, elle publie sa propre pédagogie s'inspirant de l'approche sensorielle Montessori et de la théorie des intelligences multiples de Howard Gardner au regard des recherches en neuroéducation ; plusieurs organismes québécois l’utilisent actuellement et plus de quinze mille professeurs américains utilisent les ressources pédagogiques anglophones.[réf. nécessaire]
@@ -584,12 +600,14 @@
           <t>Autisme, Alzheimer, Inuits et Premières Nations amérindiennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, elle commence à s’intéresser aux liens entre Inuits - Premières Nations et autisme  [35],[36].
-Elle a suivi dans un premier temps, un séminaire de troisième cycle en psychiatrie sociale et transculturelle (Inuits) à l’Université McGill [37]. Puis dans un deuxième temps, elle se rend dans des réserves indiennes canadiennes, où elle étudie des pow-wow et d'autres célébrations amérindiennes, des cryptes archéologiques et des sites d’interprétations amérindiens afin de prendre des photographies pour élaborer, en 2013, du matériel pédagogique didactique culturellement adapté aux Inuits et aux Premières Nations.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, elle commence à s’intéresser aux liens entre Inuits - Premières Nations et autisme  ,.
+Elle a suivi dans un premier temps, un séminaire de troisième cycle en psychiatrie sociale et transculturelle (Inuits) à l’Université McGill . Puis dans un deuxième temps, elle se rend dans des réserves indiennes canadiennes, où elle étudie des pow-wow et d'autres célébrations amérindiennes, des cryptes archéologiques et des sites d’interprétations amérindiens afin de prendre des photographies pour élaborer, en 2013, du matériel pédagogique didactique culturellement adapté aux Inuits et aux Premières Nations.
 Toujours en 2013, elle a soumis un mémoire sur les troubles envahissants du développement et les enfants autochtones du Québec, ces derniers étant mal diagnostiqués et ayant très peu de prises en charge, au Secrétariat aux affaires autochtones - Ministère du Conseil exécutif du Québec, dans le cadre d’une préparation d’une consultation sur un Plan d'action racisme et discrimination.
-En 2015, elle réalise un certificat en ethnogériatrie (spécialisation pour les Premières Nations) à distance auprès de la faculté de médecine de l'Université Stanford[38],[4]. Son projet de fin d'études porte sur la réalité virtuelle et la simulation des sens. À la suite de ce diplôme, elle participe à un projet pilote pendant un an, dans un institut de recherche québécois, en tant qu'olfactothérapeute en neurologie et spécialiste Montessori. Elle doit travailler sur la mémoire sensorielle avec une dizaine de personnes centenaires et présentant des démences préfontales/Alzheimer, à la fois sur le sens olfactif (banque d'odeurs pour faire raviver des souvenirs) mais également sur la logique (cortex préfontal) de ces personnes avec du matériel de géometrie Montessori.
+En 2015, elle réalise un certificat en ethnogériatrie (spécialisation pour les Premières Nations) à distance auprès de la faculté de médecine de l'Université Stanford,. Son projet de fin d'études porte sur la réalité virtuelle et la simulation des sens. À la suite de ce diplôme, elle participe à un projet pilote pendant un an, dans un institut de recherche québécois, en tant qu'olfactothérapeute en neurologie et spécialiste Montessori. Elle doit travailler sur la mémoire sensorielle avec une dizaine de personnes centenaires et présentant des démences préfontales/Alzheimer, à la fois sur le sens olfactif (banque d'odeurs pour faire raviver des souvenirs) mais également sur la logique (cortex préfontal) de ces personnes avec du matériel de géometrie Montessori.
 </t>
         </is>
       </c>
@@ -620,15 +638,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Méthode Kayser
-En retrouvant et perfectionnant un art ancestral japonais du XIIe siècle, le Suminagashi (action de peindre dans un bac d’eau et non sur un support rigide), elle a pu combiner ce dernier à l’art-thérapie dans une méthode de peinture pour autistes asperger. Un premier affichage scientifique a eu lieu lors du Symposium 2010 du Consortium national de la recherche en intégration sociale à l’hôtel Hyatt Regency (Montréal, Québec). Cette recherche a été effectuée pour le compte du Centre de recherche et de développement de matériel didactique pour enfants autistes de Montréal.
-Pédagogie Kayser
-Pour créer ce nouveau programme, Victoria Kayser s’est basée sur ses proches recherches doctorales comprenant l’approche sensorielle et les principes fondamentaux de Maria Montessori, la théorie des intelligences multiples d’Howard Gardner, son expérience en enseignement préscolaire, d'un cursus en astronomie, mais également d’une formation en neuro-éducation.
-La pédagogie Kayser se résume en sept points-clés et sept livrets/intelligences à développer chez l'enfant de 4 à 7 ans. L’intégralité des cours est en consultation libre. Les droits d'auteurs et bannières publicitaires présentes sur les blogues ont été redistribués a douze projets de microcrédits en Israël, Cambodge, Azerbaïdjan, etc.[39] Victoria Kayser est intervenue directement auprès de cent vingt enfants au Québec pour animer des cours sur la pédagogie Kayser, et auprès de trois cents enfants dans des Centres de la petite enfance (CPE), école avec mandat régional en déficience auditive et visuelle, hôpital pour enfants, etc.
-Maison d’éducation Kayser
-De janvier à juin 2013, un projet pilote axé sur la pédagogie Kayser (service de garde équivalent d’une école maternelle française) a été réalisé sur Montréal, en bas du Mont-Royal pour six enfants de 2 à 5 ans.
-Instruction en famille
-Elle a donné plusieurs conférences pour l'Association québécoise pour l'éducation à domicile. Ses propres enfants ont été "worldschoolers" entre l'Europe, l'Amérique du Nord et l'Asie durant trois ans [40].
+          <t>Méthode Kayser</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En retrouvant et perfectionnant un art ancestral japonais du XIIe siècle, le Suminagashi (action de peindre dans un bac d’eau et non sur un support rigide), elle a pu combiner ce dernier à l’art-thérapie dans une méthode de peinture pour autistes asperger. Un premier affichage scientifique a eu lieu lors du Symposium 2010 du Consortium national de la recherche en intégration sociale à l’hôtel Hyatt Regency (Montréal, Québec). Cette recherche a été effectuée pour le compte du Centre de recherche et de développement de matériel didactique pour enfants autistes de Montréal.
 </t>
         </is>
       </c>
@@ -654,13 +670,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Théorie et pédagogie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pédagogie Kayser</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour créer ce nouveau programme, Victoria Kayser s’est basée sur ses proches recherches doctorales comprenant l’approche sensorielle et les principes fondamentaux de Maria Montessori, la théorie des intelligences multiples d’Howard Gardner, son expérience en enseignement préscolaire, d'un cursus en astronomie, mais également d’une formation en neuro-éducation.
+La pédagogie Kayser se résume en sept points-clés et sept livrets/intelligences à développer chez l'enfant de 4 à 7 ans. L’intégralité des cours est en consultation libre. Les droits d'auteurs et bannières publicitaires présentes sur les blogues ont été redistribués a douze projets de microcrédits en Israël, Cambodge, Azerbaïdjan, etc. Victoria Kayser est intervenue directement auprès de cent vingt enfants au Québec pour animer des cours sur la pédagogie Kayser, et auprès de trois cents enfants dans des Centres de la petite enfance (CPE), école avec mandat régional en déficience auditive et visuelle, hôpital pour enfants, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Théorie et pédagogie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maison d’éducation Kayser</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De janvier à juin 2013, un projet pilote axé sur la pédagogie Kayser (service de garde équivalent d’une école maternelle française) a été réalisé sur Montréal, en bas du Mont-Royal pour six enfants de 2 à 5 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Théorie et pédagogie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Instruction en famille</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a donné plusieurs conférences pour l'Association québécoise pour l'éducation à domicile. Ses propres enfants ont été "worldschoolers" entre l'Europe, l'Amérique du Nord et l'Asie durant trois ans .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publications et comité de lecture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Publications
-2022. La protection du patrimoine écrit lors des conflits armés. Revue spécialisée Page de Garde, pages 16-18. Québec : AQRAL.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2022. La protection du patrimoine écrit lors des conflits armés. Revue spécialisée Page de Garde, pages 16-18. Québec : AQRAL.
 2022. Mathématiques et physique des bulles de savon. Illustrations scientifiques. USCO Database - Copyright Office, Library of Congress, Washington D.C.
 2021. Optics and Particles. Explorer of the subatomic, atomic, genetic, extra-galactic and « invisible » worlds. From the infinitely small to the infinitely large, here is how I see the world. Photographies expérimentales et scientifiques. USCO Database - Copyright Office, Library of Congress, Washington D.C. Site internet : https://sites.google.com/view/opticsandparticles
 2021. The Madrid Declaration on Science Diplomacy, signatories of the Declaration. Collectif. Madrid : S4D4C. Lien direct : https://www.s4d4c.eu/s4d4c-1st-global-meeting/the-madrid-declaration-on-science-diplomacy
@@ -673,44 +806,80 @@
 2013. Autisme et enfants autochtones du Québec : Inuits et Premières Nations, méthodologie de projet. Montréal : Centre de recherche DMDEA  (ISBN 9782981271143). En consultation à la Grande Bibliothèque du Québec, Collection nationale.
 2012. Collectif (2012) « Jobs, decent work and inclusive growth » Genève : United Nations Development Programme (UNDP), United Nations Department of Economic and Social Affairs (UNDESA), and International Labour Organization (ILO) (page 15). [lire en ligne] [PDF]
 2012. La pédagogie Montessori : De l’approche anthropologique à l’émergence de la neuroéducation.  (ISBN 978-613-1-53790-5) Allemagne (2011).
-2012. Autisme et approche Montessori : l'approche Montessori est-elle adaptée à l`autisme ? Autisme et approche Montessori. Montréal : Centre de recherche DMDEA  (ISBN 978-0557393329), 2010, recherche qui fera l'objet d'une formation d'Autisme France en Suisse en mars 2012[41].
+2012. Autisme et approche Montessori : l'approche Montessori est-elle adaptée à l`autisme ? Autisme et approche Montessori. Montréal : Centre de recherche DMDEA  (ISBN 978-0557393329), 2010, recherche qui fera l'objet d'une formation d'Autisme France en Suisse en mars 2012.
 2011. Recherche d'interprétation du cosmos sur un mode musical : les fondements de l`astromusique des premières représentations mathématiques à l`enregistrement des pulsars. CU Histoire de l`astronomie.
 2011. Manifeste pour une éducation universelle. Montréal : Centre de recherche DMDEA.
 2011.« Comment venir à bout de la violence en France ? » La Une du Plus du Nouvel Observateur du 1er août 2011. Sélectionné et édité par Melissa Bounoua. [lire en ligne].
 2011. Rapport ONU, 5e Examen ministériel annuel du conseil économique et social, section Éducation : « Combler l'écart [Closing the Gap]. Phase II, accès à l'éducation » Contribution en tant qu'experte. New York, 2011. [lire en ligne] et [lire en ligne]
 2011. La pédagogie Kayser (4-7ans). Entre approche sensorielle Montessori et théorie des intelligences multiples de Gardner. Montréal : Centre de recherche DMDEA  (ISBN 978-2-9812711-0-5), 2011.
 2010. La reconstruction psychologique des enfants victimes des conflits armés grâce à l`approche sensorielle Montessori. Montréal : Centre de recherche DMDEA pour le Forum mondial de l`éducation en Palestine (visioconférence : 28-31 octobre 2010).
-2009. Symposium numéro 10 « Association québécoise pour l’éducation à domicile (La pédagogie Montessori au primaire) » Montréal. [lire en ligne]
-Membre de comité de lecture
-Revue Federalism-e, numéro 10, publiée conjointement par le Collège militaire Royal du Canada et l’Université du Queen's. [lire en ligne] (page 144)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Victoria_Kayser</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+2009. Symposium numéro 10 « Association québécoise pour l’éducation à domicile (La pédagogie Montessori au primaire) » Montréal. [lire en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications et comité de lecture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Membre de comité de lecture</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Revue Federalism-e, numéro 10, publiée conjointement par le Collège militaire Royal du Canada et l’Université du Queen's. [lire en ligne] (page 144)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_Kayser</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Victoria Kayser-Cuny: Optics and Particles (en anglais)
 </t>
